--- a/abstracts_2023.xlsx
+++ b/abstracts_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plasm\Desktop\Abstract_HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31121B08-A1E3-4B7C-ADE6-41FF19954D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E82CBB-CEB9-4262-8337-A21E2ABEC2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1624,9 +1624,6 @@
     <t>From Physicist to Quant: a Phase Transition</t>
   </si>
   <si>
-    <t>In this presentation I will talk about my transition from a PhD in physics to my current role as a quant in a major US financial institution. I will draw parallels and also differentiate between the two positions and give ideas on how one can prepare for such transition.</t>
-  </si>
-  <si>
     <t>Tikaram Neupane</t>
   </si>
   <si>
@@ -2535,6 +2532,9 @@
 Understanding the causes and effects of air pollution is crucial for developing effective strategies to mitigate its harmful effects. Physics, in particular, plays a vital role in this field by providing the tools and techniques required to measure and comprehend the behavior of pollutants. By examining air pollution, we gain insights into the factors driving this problem and can devise measures to reduce pollution levels. Moreover, this knowledge empowers individuals and societies to make informed decisions about minimizing exposure to pollutants and formulating policies and regulations that safeguard both human well-being and the environment.
 In our study conducted in the central Massachusetts region, we investigated the status of air pollution using a combination of Environmental Protection Agency (EPA) monitoring sites and hand-held sensors. While the EPA sites offer long-term monitoring data, hand-held devices' flexible and affordable nature allowed us to explore air quality at the local neighborhood and street levels. By utilizing these tools, we assessed the spatial and temporal variations in air pollution within the city, aiding in the identification of localized hotspots. Such information is valuable for targeting specific areas requiring interventions and further understanding the dynamics of pollution distribution.
 .</t>
+  </si>
+  <si>
+    <t>A Quant's primary responsibility is to build  financial models using various numerical methods in order to help the business desk make decisions on the millions of transactions they make everyday. In this presentation I will talk about my transition from a PhD in physics to my current role as a quant in a major US financial institution. I will draw parallels and also differentiate between the two positions and give ideas on how one can prepare for such transition.</t>
   </si>
 </sst>
 </file>
@@ -2681,7 +2681,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2861,6 +2861,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -3022,7 +3028,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3030,6 +3036,13 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3387,8 +3400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3894,16 +3907,16 @@
         <v>30</v>
       </c>
       <c r="H6" t="s">
+        <v>558</v>
+      </c>
+      <c r="I6" t="s">
         <v>559</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>558</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="J6" t="s">
-        <v>559</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>561</v>
       </c>
       <c r="L6" t="s">
         <v>408</v>
@@ -3912,10 +3925,10 @@
         <v>45</v>
       </c>
       <c r="Y6" t="s">
+        <v>561</v>
+      </c>
+      <c r="Z6" t="s">
         <v>562</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>563</v>
       </c>
       <c r="AE6">
         <v>1</v>
@@ -4552,16 +4565,16 @@
         <v>32</v>
       </c>
       <c r="H14" t="s">
+        <v>568</v>
+      </c>
+      <c r="I14" t="s">
         <v>569</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
+        <v>568</v>
+      </c>
+      <c r="K14" t="s">
         <v>570</v>
-      </c>
-      <c r="J14" t="s">
-        <v>569</v>
-      </c>
-      <c r="K14" t="s">
-        <v>571</v>
       </c>
       <c r="L14" t="s">
         <v>408</v>
@@ -4570,13 +4583,13 @@
         <v>44</v>
       </c>
       <c r="N14" t="s">
+        <v>571</v>
+      </c>
+      <c r="O14" t="s">
         <v>572</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>573</v>
-      </c>
-      <c r="P14" t="s">
-        <v>574</v>
       </c>
       <c r="Q14" t="s">
         <v>44</v>
@@ -4591,10 +4604,10 @@
         <v>80</v>
       </c>
       <c r="Y14" t="s">
+        <v>574</v>
+      </c>
+      <c r="Z14" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>576</v>
       </c>
       <c r="AA14" t="s">
         <v>44</v>
@@ -4629,16 +4642,16 @@
         <v>30</v>
       </c>
       <c r="H15" t="s">
+        <v>594</v>
+      </c>
+      <c r="I15" t="s">
         <v>595</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
+        <v>594</v>
+      </c>
+      <c r="K15" t="s">
         <v>596</v>
-      </c>
-      <c r="J15" t="s">
-        <v>595</v>
-      </c>
-      <c r="K15" t="s">
-        <v>597</v>
       </c>
       <c r="L15" t="s">
         <v>408</v>
@@ -4647,10 +4660,10 @@
         <v>80</v>
       </c>
       <c r="Y15" t="s">
+        <v>597</v>
+      </c>
+      <c r="Z15" t="s">
         <v>598</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>599</v>
       </c>
       <c r="AE15">
         <v>1</v>
@@ -4679,16 +4692,16 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
+        <v>766</v>
+      </c>
+      <c r="I16" t="s">
         <v>767</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
+        <v>766</v>
+      </c>
+      <c r="K16" t="s">
         <v>768</v>
-      </c>
-      <c r="J16" t="s">
-        <v>767</v>
-      </c>
-      <c r="K16" t="s">
-        <v>769</v>
       </c>
       <c r="L16" t="s">
         <v>408</v>
@@ -4700,13 +4713,13 @@
         <v>37</v>
       </c>
       <c r="R16" t="s">
+        <v>769</v>
+      </c>
+      <c r="S16" t="s">
         <v>770</v>
       </c>
-      <c r="S16" t="s">
-        <v>771</v>
-      </c>
       <c r="T16" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="U16" t="s">
         <v>37</v>
@@ -4721,11 +4734,11 @@
         <v>80</v>
       </c>
       <c r="Y16" t="s">
+        <v>771</v>
+      </c>
+      <c r="Z16" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="Z16" s="2" t="s">
-        <v>773</v>
-      </c>
       <c r="AA16" t="s">
         <v>44</v>
       </c>
@@ -4736,7 +4749,7 @@
         <v>37</v>
       </c>
       <c r="AD16" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AE16">
         <v>0</v>
@@ -5498,16 +5511,16 @@
         <v>32</v>
       </c>
       <c r="H25" t="s">
+        <v>491</v>
+      </c>
+      <c r="I25" t="s">
         <v>492</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
+        <v>491</v>
+      </c>
+      <c r="K25" t="s">
         <v>493</v>
-      </c>
-      <c r="J25" t="s">
-        <v>492</v>
-      </c>
-      <c r="K25" t="s">
-        <v>494</v>
       </c>
       <c r="L25" t="s">
         <v>408</v>
@@ -5516,13 +5529,13 @@
         <v>44</v>
       </c>
       <c r="N25" t="s">
+        <v>494</v>
+      </c>
+      <c r="O25" t="s">
         <v>495</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>496</v>
-      </c>
-      <c r="P25" t="s">
-        <v>497</v>
       </c>
       <c r="Q25" t="s">
         <v>44</v>
@@ -5537,10 +5550,10 @@
         <v>119</v>
       </c>
       <c r="Y25" t="s">
+        <v>497</v>
+      </c>
+      <c r="Z25" t="s">
         <v>498</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>499</v>
       </c>
       <c r="AA25" t="s">
         <v>44</v>
@@ -5575,16 +5588,16 @@
         <v>30</v>
       </c>
       <c r="H26" t="s">
+        <v>657</v>
+      </c>
+      <c r="I26" t="s">
         <v>658</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
+        <v>657</v>
+      </c>
+      <c r="K26" t="s">
         <v>659</v>
-      </c>
-      <c r="J26" t="s">
-        <v>658</v>
-      </c>
-      <c r="K26" t="s">
-        <v>660</v>
       </c>
       <c r="L26" t="s">
         <v>408</v>
@@ -5593,10 +5606,10 @@
         <v>119</v>
       </c>
       <c r="Y26" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z26" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="Z26" s="2" t="s">
-        <v>662</v>
       </c>
       <c r="AE26">
         <v>1</v>
@@ -6916,16 +6929,16 @@
         <v>32</v>
       </c>
       <c r="H41" t="s">
+        <v>499</v>
+      </c>
+      <c r="I41" t="s">
         <v>500</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
+        <v>499</v>
+      </c>
+      <c r="K41" t="s">
         <v>501</v>
-      </c>
-      <c r="J41" t="s">
-        <v>500</v>
-      </c>
-      <c r="K41" t="s">
-        <v>502</v>
       </c>
       <c r="L41" t="s">
         <v>408</v>
@@ -6934,22 +6947,22 @@
         <v>44</v>
       </c>
       <c r="N41" t="s">
+        <v>502</v>
+      </c>
+      <c r="P41" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>37</v>
+      </c>
+      <c r="R41" t="s">
         <v>503</v>
       </c>
-      <c r="P41" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>37</v>
-      </c>
-      <c r="R41" t="s">
-        <v>504</v>
-      </c>
       <c r="S41" t="s">
+        <v>500</v>
+      </c>
+      <c r="T41" t="s">
         <v>501</v>
-      </c>
-      <c r="T41" t="s">
-        <v>502</v>
       </c>
       <c r="U41" t="s">
         <v>37</v>
@@ -6964,10 +6977,10 @@
         <v>56</v>
       </c>
       <c r="Y41" t="s">
+        <v>504</v>
+      </c>
+      <c r="Z41" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="Z41" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="AA41" t="s">
         <v>37</v>
@@ -7005,16 +7018,16 @@
         <v>32</v>
       </c>
       <c r="H42" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I42" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J42" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K42" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L42" t="s">
         <v>408</v>
@@ -7023,25 +7036,25 @@
         <v>44</v>
       </c>
       <c r="N42" t="s">
+        <v>514</v>
+      </c>
+      <c r="O42" t="s">
         <v>515</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>37</v>
+      </c>
+      <c r="R42" t="s">
         <v>516</v>
       </c>
-      <c r="P42" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>37</v>
-      </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>517</v>
       </c>
-      <c r="S42" t="s">
-        <v>518</v>
-      </c>
       <c r="T42" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="U42" t="s">
         <v>37</v>
@@ -7056,10 +7069,10 @@
         <v>56</v>
       </c>
       <c r="Y42" t="s">
+        <v>518</v>
+      </c>
+      <c r="Z42" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="Z42" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="AA42" t="s">
         <v>37</v>
@@ -7097,16 +7110,16 @@
         <v>32</v>
       </c>
       <c r="H43" t="s">
+        <v>607</v>
+      </c>
+      <c r="I43" t="s">
         <v>608</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
+        <v>607</v>
+      </c>
+      <c r="K43" t="s">
         <v>609</v>
-      </c>
-      <c r="J43" t="s">
-        <v>608</v>
-      </c>
-      <c r="K43" t="s">
-        <v>610</v>
       </c>
       <c r="L43" t="s">
         <v>408</v>
@@ -7118,13 +7131,13 @@
         <v>37</v>
       </c>
       <c r="R43" t="s">
+        <v>607</v>
+      </c>
+      <c r="S43" t="s">
         <v>608</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>609</v>
-      </c>
-      <c r="T43" t="s">
-        <v>610</v>
       </c>
       <c r="U43" t="s">
         <v>37</v>
@@ -7139,11 +7152,11 @@
         <v>56</v>
       </c>
       <c r="Y43" t="s">
+        <v>610</v>
+      </c>
+      <c r="Z43" t="s">
         <v>611</v>
       </c>
-      <c r="Z43" t="s">
-        <v>612</v>
-      </c>
       <c r="AA43" t="s">
         <v>44</v>
       </c>
@@ -7154,7 +7167,7 @@
         <v>37</v>
       </c>
       <c r="AD43" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AE43">
         <v>0</v>
@@ -7180,16 +7193,16 @@
         <v>30</v>
       </c>
       <c r="H44" t="s">
+        <v>625</v>
+      </c>
+      <c r="I44" t="s">
         <v>626</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
+        <v>625</v>
+      </c>
+      <c r="K44" s="2" t="s">
         <v>627</v>
-      </c>
-      <c r="J44" t="s">
-        <v>626</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>628</v>
       </c>
       <c r="L44" t="s">
         <v>408</v>
@@ -7198,10 +7211,10 @@
         <v>56</v>
       </c>
       <c r="Y44" t="s">
+        <v>628</v>
+      </c>
+      <c r="Z44" t="s">
         <v>629</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>630</v>
       </c>
       <c r="AE44">
         <v>1</v>
@@ -7917,13 +7930,13 @@
         <v>45123</v>
       </c>
       <c r="D54" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E54" s="4">
         <v>45123</v>
       </c>
       <c r="F54" s="3">
-        <v>0.46875</v>
+        <v>0.40625</v>
       </c>
       <c r="G54" t="s">
         <v>32</v>
@@ -8024,16 +8037,16 @@
         <v>32</v>
       </c>
       <c r="H55" t="s">
+        <v>506</v>
+      </c>
+      <c r="I55" t="s">
         <v>507</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
+        <v>506</v>
+      </c>
+      <c r="K55" t="s">
         <v>508</v>
-      </c>
-      <c r="J55" t="s">
-        <v>507</v>
-      </c>
-      <c r="K55" t="s">
-        <v>509</v>
       </c>
       <c r="L55" t="s">
         <v>408</v>
@@ -8042,25 +8055,25 @@
         <v>44</v>
       </c>
       <c r="N55" t="s">
+        <v>509</v>
+      </c>
+      <c r="O55" t="s">
         <v>510</v>
       </c>
-      <c r="O55" t="s">
-        <v>511</v>
-      </c>
       <c r="P55" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Q55" t="s">
         <v>37</v>
       </c>
       <c r="R55" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="S55" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="T55" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="U55" t="s">
         <v>37</v>
@@ -8075,10 +8088,10 @@
         <v>144</v>
       </c>
       <c r="Y55" t="s">
+        <v>511</v>
+      </c>
+      <c r="Z55" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="Z55" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="AA55" t="s">
         <v>37</v>
@@ -8104,28 +8117,28 @@
         <v>45123</v>
       </c>
       <c r="D56" s="3">
-        <v>0.48958333333333331</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="E56" s="4">
         <v>45123</v>
       </c>
       <c r="F56" s="3">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="G56" t="s">
         <v>32</v>
       </c>
       <c r="H56" t="s">
+        <v>520</v>
+      </c>
+      <c r="I56" t="s">
         <v>521</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
+        <v>520</v>
+      </c>
+      <c r="K56" t="s">
         <v>522</v>
-      </c>
-      <c r="J56" t="s">
-        <v>521</v>
-      </c>
-      <c r="K56" t="s">
-        <v>523</v>
       </c>
       <c r="L56" t="s">
         <v>408</v>
@@ -8134,25 +8147,25 @@
         <v>37</v>
       </c>
       <c r="N56" t="s">
+        <v>523</v>
+      </c>
+      <c r="O56" t="s">
         <v>524</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>525</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
+        <v>37</v>
+      </c>
+      <c r="R56" t="s">
         <v>526</v>
       </c>
-      <c r="Q56" t="s">
-        <v>37</v>
-      </c>
-      <c r="R56" t="s">
+      <c r="S56" t="s">
         <v>527</v>
       </c>
-      <c r="S56" t="s">
-        <v>528</v>
-      </c>
       <c r="T56" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="U56" t="s">
         <v>37</v>
@@ -8167,22 +8180,22 @@
         <v>144</v>
       </c>
       <c r="Y56" t="s">
+        <v>528</v>
+      </c>
+      <c r="Z56" t="s">
         <v>529</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD56" t="s">
         <v>530</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD56" t="s">
-        <v>531</v>
       </c>
       <c r="AE56">
         <v>0</v>
@@ -8196,28 +8209,28 @@
         <v>45123</v>
       </c>
       <c r="D57" s="3">
-        <v>0.39583333333333331</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E57" s="4">
         <v>45123</v>
       </c>
       <c r="F57" s="3">
-        <v>0.41666666666666669</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="G57" t="s">
         <v>30</v>
       </c>
       <c r="H57" t="s">
+        <v>531</v>
+      </c>
+      <c r="I57" t="s">
         <v>532</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
+        <v>531</v>
+      </c>
+      <c r="K57" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="J57" t="s">
-        <v>532</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="L57" t="s">
         <v>408</v>
@@ -8226,10 +8239,10 @@
         <v>144</v>
       </c>
       <c r="Y57" t="s">
+        <v>534</v>
+      </c>
+      <c r="Z57" t="s">
         <v>535</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>536</v>
       </c>
       <c r="AE57">
         <v>1</v>
@@ -8255,16 +8268,16 @@
         <v>30</v>
       </c>
       <c r="H58" t="s">
+        <v>541</v>
+      </c>
+      <c r="I58" t="s">
         <v>542</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
+        <v>541</v>
+      </c>
+      <c r="K58" t="s">
         <v>543</v>
-      </c>
-      <c r="J58" t="s">
-        <v>542</v>
-      </c>
-      <c r="K58" t="s">
-        <v>544</v>
       </c>
       <c r="L58" t="s">
         <v>408</v>
@@ -8273,10 +8286,10 @@
         <v>144</v>
       </c>
       <c r="Y58" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="Z58" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="Z58" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="AE58">
         <v>1</v>
@@ -8305,16 +8318,16 @@
         <v>32</v>
       </c>
       <c r="H59" t="s">
+        <v>546</v>
+      </c>
+      <c r="I59" t="s">
         <v>547</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
+        <v>546</v>
+      </c>
+      <c r="K59" t="s">
         <v>548</v>
-      </c>
-      <c r="J59" t="s">
-        <v>547</v>
-      </c>
-      <c r="K59" t="s">
-        <v>549</v>
       </c>
       <c r="L59" t="s">
         <v>408</v>
@@ -8323,10 +8336,10 @@
         <v>44</v>
       </c>
       <c r="N59" t="s">
+        <v>549</v>
+      </c>
+      <c r="P59" t="s">
         <v>550</v>
-      </c>
-      <c r="P59" t="s">
-        <v>551</v>
       </c>
       <c r="Q59" t="s">
         <v>44</v>
@@ -8341,10 +8354,10 @@
         <v>144</v>
       </c>
       <c r="Y59" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z59" s="2" t="s">
         <v>552</v>
-      </c>
-      <c r="Z59" s="2" t="s">
-        <v>553</v>
       </c>
       <c r="AA59" t="s">
         <v>44</v>
@@ -8382,13 +8395,13 @@
         <v>32</v>
       </c>
       <c r="H60" t="s">
+        <v>576</v>
+      </c>
+      <c r="I60" t="s">
         <v>577</v>
       </c>
-      <c r="I60" t="s">
-        <v>578</v>
-      </c>
       <c r="J60" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K60" t="s">
         <v>317</v>
@@ -8400,22 +8413,22 @@
         <v>37</v>
       </c>
       <c r="N60" t="s">
+        <v>578</v>
+      </c>
+      <c r="O60" t="s">
         <v>579</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>580</v>
       </c>
-      <c r="P60" t="s">
+      <c r="Q60" t="s">
+        <v>37</v>
+      </c>
+      <c r="R60" t="s">
         <v>581</v>
       </c>
-      <c r="Q60" t="s">
-        <v>37</v>
-      </c>
-      <c r="R60" t="s">
+      <c r="S60" t="s">
         <v>582</v>
-      </c>
-      <c r="S60" t="s">
-        <v>583</v>
       </c>
       <c r="T60" t="s">
         <v>317</v>
@@ -8433,10 +8446,10 @@
         <v>144</v>
       </c>
       <c r="Y60" t="s">
+        <v>583</v>
+      </c>
+      <c r="Z60" t="s">
         <v>584</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>585</v>
       </c>
       <c r="AA60" t="s">
         <v>44</v>
@@ -8474,13 +8487,13 @@
         <v>32</v>
       </c>
       <c r="H61" t="s">
+        <v>585</v>
+      </c>
+      <c r="I61" t="s">
         <v>586</v>
       </c>
-      <c r="I61" t="s">
-        <v>587</v>
-      </c>
       <c r="J61" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K61" t="s">
         <v>317</v>
@@ -8492,22 +8505,22 @@
         <v>37</v>
       </c>
       <c r="N61" t="s">
+        <v>587</v>
+      </c>
+      <c r="O61" t="s">
         <v>588</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>589</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
+        <v>37</v>
+      </c>
+      <c r="R61" t="s">
         <v>590</v>
       </c>
-      <c r="Q61" t="s">
-        <v>37</v>
-      </c>
-      <c r="R61" t="s">
-        <v>591</v>
-      </c>
       <c r="S61" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="T61" t="s">
         <v>317</v>
@@ -8525,22 +8538,22 @@
         <v>144</v>
       </c>
       <c r="Y61" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z61" t="s">
         <v>592</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD61" t="s">
         <v>593</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC61" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD61" t="s">
-        <v>594</v>
       </c>
       <c r="AE61">
         <v>0</v>
@@ -8569,13 +8582,13 @@
         <v>32</v>
       </c>
       <c r="H62" t="s">
+        <v>599</v>
+      </c>
+      <c r="I62" t="s">
         <v>600</v>
       </c>
-      <c r="I62" t="s">
-        <v>601</v>
-      </c>
       <c r="J62" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K62" t="s">
         <v>327</v>
@@ -8587,10 +8600,10 @@
         <v>37</v>
       </c>
       <c r="N62" t="s">
+        <v>601</v>
+      </c>
+      <c r="O62" t="s">
         <v>602</v>
-      </c>
-      <c r="O62" t="s">
-        <v>603</v>
       </c>
       <c r="P62" t="s">
         <v>327</v>
@@ -8599,10 +8612,10 @@
         <v>37</v>
       </c>
       <c r="R62" t="s">
+        <v>603</v>
+      </c>
+      <c r="S62" t="s">
         <v>604</v>
-      </c>
-      <c r="S62" t="s">
-        <v>605</v>
       </c>
       <c r="T62" t="s">
         <v>327</v>
@@ -8620,10 +8633,10 @@
         <v>144</v>
       </c>
       <c r="Y62" t="s">
+        <v>605</v>
+      </c>
+      <c r="Z62" t="s">
         <v>606</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>607</v>
       </c>
       <c r="AA62" t="s">
         <v>44</v>
@@ -8649,28 +8662,28 @@
         <v>45123</v>
       </c>
       <c r="D63" s="3">
-        <v>0.46875</v>
+        <v>0.40625</v>
       </c>
       <c r="E63" s="4">
         <v>45123</v>
       </c>
       <c r="F63" s="3">
-        <v>0.47916666666666669</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G63" t="s">
         <v>32</v>
       </c>
       <c r="H63" t="s">
+        <v>630</v>
+      </c>
+      <c r="I63" t="s">
         <v>631</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
+        <v>630</v>
+      </c>
+      <c r="K63" t="s">
         <v>632</v>
-      </c>
-      <c r="J63" t="s">
-        <v>631</v>
-      </c>
-      <c r="K63" t="s">
-        <v>633</v>
       </c>
       <c r="L63" t="s">
         <v>408</v>
@@ -8679,25 +8692,25 @@
         <v>44</v>
       </c>
       <c r="N63" t="s">
+        <v>633</v>
+      </c>
+      <c r="O63" t="s">
         <v>634</v>
       </c>
-      <c r="O63" t="s">
+      <c r="P63" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>37</v>
+      </c>
+      <c r="R63" t="s">
         <v>635</v>
       </c>
-      <c r="P63" t="s">
-        <v>633</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>37</v>
-      </c>
-      <c r="R63" t="s">
+      <c r="S63" t="s">
         <v>636</v>
       </c>
-      <c r="S63" t="s">
-        <v>637</v>
-      </c>
       <c r="T63" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="U63" t="s">
         <v>37</v>
@@ -8712,11 +8725,11 @@
         <v>144</v>
       </c>
       <c r="Y63" t="s">
+        <v>637</v>
+      </c>
+      <c r="Z63" t="s">
         <v>638</v>
       </c>
-      <c r="Z63" t="s">
-        <v>639</v>
-      </c>
       <c r="AA63" t="s">
         <v>44</v>
       </c>
@@ -8727,7 +8740,7 @@
         <v>37</v>
       </c>
       <c r="AD63" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AE63">
         <v>0</v>
@@ -8756,13 +8769,13 @@
         <v>32</v>
       </c>
       <c r="H64" t="s">
+        <v>639</v>
+      </c>
+      <c r="I64" t="s">
         <v>640</v>
       </c>
-      <c r="I64" t="s">
-        <v>641</v>
-      </c>
       <c r="J64" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K64" t="s">
         <v>208</v>
@@ -8774,25 +8787,25 @@
         <v>37</v>
       </c>
       <c r="N64" t="s">
+        <v>641</v>
+      </c>
+      <c r="O64" t="s">
         <v>642</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>643</v>
       </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
+        <v>37</v>
+      </c>
+      <c r="R64" t="s">
         <v>644</v>
       </c>
-      <c r="Q64" t="s">
-        <v>37</v>
-      </c>
-      <c r="R64" t="s">
+      <c r="S64" t="s">
         <v>645</v>
       </c>
-      <c r="S64" t="s">
+      <c r="T64" t="s">
         <v>646</v>
-      </c>
-      <c r="T64" t="s">
-        <v>647</v>
       </c>
       <c r="U64" t="s">
         <v>37</v>
@@ -8807,10 +8820,10 @@
         <v>144</v>
       </c>
       <c r="Y64" t="s">
+        <v>647</v>
+      </c>
+      <c r="Z64" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="Z64" s="2" t="s">
-        <v>649</v>
       </c>
       <c r="AA64" t="s">
         <v>44</v>
@@ -8848,16 +8861,16 @@
         <v>32</v>
       </c>
       <c r="H65" t="s">
+        <v>649</v>
+      </c>
+      <c r="I65" t="s">
         <v>650</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
+        <v>649</v>
+      </c>
+      <c r="K65" t="s">
         <v>651</v>
-      </c>
-      <c r="J65" t="s">
-        <v>650</v>
-      </c>
-      <c r="K65" t="s">
-        <v>652</v>
       </c>
       <c r="L65" t="s">
         <v>408</v>
@@ -8869,13 +8882,13 @@
         <v>37</v>
       </c>
       <c r="R65" t="s">
+        <v>652</v>
+      </c>
+      <c r="S65" t="s">
         <v>653</v>
       </c>
-      <c r="S65" t="s">
+      <c r="T65" t="s">
         <v>654</v>
-      </c>
-      <c r="T65" t="s">
-        <v>655</v>
       </c>
       <c r="U65" t="s">
         <v>37</v>
@@ -8890,10 +8903,10 @@
         <v>144</v>
       </c>
       <c r="Y65" t="s">
+        <v>655</v>
+      </c>
+      <c r="Z65" t="s">
         <v>656</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>657</v>
       </c>
       <c r="AA65" t="s">
         <v>44</v>
@@ -8931,16 +8944,16 @@
         <v>32</v>
       </c>
       <c r="H66" t="s">
+        <v>662</v>
+      </c>
+      <c r="I66" t="s">
         <v>663</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
+        <v>662</v>
+      </c>
+      <c r="K66" t="s">
         <v>664</v>
-      </c>
-      <c r="J66" t="s">
-        <v>663</v>
-      </c>
-      <c r="K66" t="s">
-        <v>665</v>
       </c>
       <c r="L66" t="s">
         <v>408</v>
@@ -8949,25 +8962,25 @@
         <v>44</v>
       </c>
       <c r="N66" t="s">
+        <v>665</v>
+      </c>
+      <c r="O66" t="s">
         <v>666</v>
       </c>
-      <c r="O66" t="s">
+      <c r="P66" t="s">
         <v>667</v>
       </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
+        <v>37</v>
+      </c>
+      <c r="R66" t="s">
         <v>668</v>
       </c>
-      <c r="Q66" t="s">
-        <v>37</v>
-      </c>
-      <c r="R66" t="s">
+      <c r="S66" t="s">
         <v>669</v>
       </c>
-      <c r="S66" t="s">
+      <c r="T66" t="s">
         <v>670</v>
-      </c>
-      <c r="T66" t="s">
-        <v>671</v>
       </c>
       <c r="U66" t="s">
         <v>37</v>
@@ -8982,22 +8995,22 @@
         <v>144</v>
       </c>
       <c r="Y66" t="s">
+        <v>671</v>
+      </c>
+      <c r="Z66" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="Z66" s="2" t="s">
+      <c r="AA66" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD66" t="s">
         <v>673</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB66" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC66" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD66" t="s">
-        <v>674</v>
       </c>
       <c r="AE66">
         <v>0</v>
@@ -9026,16 +9039,16 @@
         <v>32</v>
       </c>
       <c r="H67" t="s">
+        <v>674</v>
+      </c>
+      <c r="I67" t="s">
         <v>675</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
+        <v>674</v>
+      </c>
+      <c r="K67" t="s">
         <v>676</v>
-      </c>
-      <c r="J67" t="s">
-        <v>675</v>
-      </c>
-      <c r="K67" t="s">
-        <v>677</v>
       </c>
       <c r="L67" t="s">
         <v>408</v>
@@ -9044,13 +9057,13 @@
         <v>44</v>
       </c>
       <c r="N67" t="s">
+        <v>677</v>
+      </c>
+      <c r="O67" t="s">
         <v>678</v>
       </c>
-      <c r="O67" t="s">
+      <c r="P67" t="s">
         <v>679</v>
-      </c>
-      <c r="P67" t="s">
-        <v>680</v>
       </c>
       <c r="Q67" t="s">
         <v>44</v>
@@ -9065,11 +9078,11 @@
         <v>144</v>
       </c>
       <c r="Y67" t="s">
+        <v>680</v>
+      </c>
+      <c r="Z67" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="Z67" s="2" t="s">
-        <v>682</v>
-      </c>
       <c r="AA67" t="s">
         <v>37</v>
       </c>
@@ -9080,7 +9093,7 @@
         <v>37</v>
       </c>
       <c r="AD67" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AE67">
         <v>0</v>
@@ -9109,13 +9122,13 @@
         <v>32</v>
       </c>
       <c r="H68" t="s">
+        <v>682</v>
+      </c>
+      <c r="I68" t="s">
         <v>683</v>
       </c>
-      <c r="I68" t="s">
-        <v>684</v>
-      </c>
       <c r="J68" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K68" t="s">
         <v>380</v>
@@ -9127,22 +9140,22 @@
         <v>37</v>
       </c>
       <c r="N68" t="s">
+        <v>684</v>
+      </c>
+      <c r="O68" t="s">
         <v>685</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>686</v>
       </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
+        <v>37</v>
+      </c>
+      <c r="R68" t="s">
         <v>687</v>
       </c>
-      <c r="Q68" t="s">
-        <v>37</v>
-      </c>
-      <c r="R68" t="s">
+      <c r="S68" t="s">
         <v>688</v>
-      </c>
-      <c r="S68" t="s">
-        <v>689</v>
       </c>
       <c r="T68" t="s">
         <v>380</v>
@@ -9160,10 +9173,10 @@
         <v>144</v>
       </c>
       <c r="Y68" t="s">
+        <v>689</v>
+      </c>
+      <c r="Z68" s="2" t="s">
         <v>690</v>
-      </c>
-      <c r="Z68" s="2" t="s">
-        <v>691</v>
       </c>
       <c r="AA68" t="s">
         <v>44</v>
@@ -9201,13 +9214,13 @@
         <v>32</v>
       </c>
       <c r="H69" t="s">
+        <v>691</v>
+      </c>
+      <c r="I69" t="s">
         <v>692</v>
       </c>
-      <c r="I69" t="s">
-        <v>693</v>
-      </c>
       <c r="J69" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K69" t="s">
         <v>380</v>
@@ -9219,25 +9232,25 @@
         <v>44</v>
       </c>
       <c r="N69" t="s">
+        <v>693</v>
+      </c>
+      <c r="O69" t="s">
         <v>694</v>
       </c>
-      <c r="O69" t="s">
+      <c r="P69" t="s">
         <v>695</v>
       </c>
-      <c r="P69" t="s">
+      <c r="Q69" t="s">
+        <v>37</v>
+      </c>
+      <c r="R69" t="s">
+        <v>687</v>
+      </c>
+      <c r="S69" t="s">
         <v>696</v>
       </c>
-      <c r="Q69" t="s">
-        <v>37</v>
-      </c>
-      <c r="R69" t="s">
-        <v>688</v>
-      </c>
-      <c r="S69" t="s">
+      <c r="T69" t="s">
         <v>697</v>
-      </c>
-      <c r="T69" t="s">
-        <v>698</v>
       </c>
       <c r="U69" t="s">
         <v>37</v>
@@ -9252,10 +9265,10 @@
         <v>144</v>
       </c>
       <c r="Y69" t="s">
+        <v>698</v>
+      </c>
+      <c r="Z69" t="s">
         <v>699</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>700</v>
       </c>
       <c r="AA69" t="s">
         <v>44</v>
@@ -9281,25 +9294,25 @@
         <v>45123</v>
       </c>
       <c r="D70" s="3">
-        <v>0.47916666666666669</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E70" s="4">
         <v>45123</v>
       </c>
       <c r="F70" s="3">
-        <v>0.48958333333333331</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
       </c>
       <c r="H70" t="s">
+        <v>700</v>
+      </c>
+      <c r="I70" t="s">
         <v>701</v>
       </c>
-      <c r="I70" t="s">
-        <v>702</v>
-      </c>
       <c r="J70" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K70" t="s">
         <v>380</v>
@@ -9311,16 +9324,16 @@
         <v>44</v>
       </c>
       <c r="N70" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>37</v>
+      </c>
+      <c r="R70" t="s">
         <v>703</v>
       </c>
-      <c r="Q70" t="s">
-        <v>37</v>
-      </c>
-      <c r="R70" t="s">
-        <v>704</v>
-      </c>
       <c r="S70" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="T70" t="s">
         <v>380</v>
@@ -9338,11 +9351,11 @@
         <v>144</v>
       </c>
       <c r="Y70" t="s">
+        <v>704</v>
+      </c>
+      <c r="Z70" t="s">
         <v>705</v>
       </c>
-      <c r="Z70" t="s">
-        <v>706</v>
-      </c>
       <c r="AA70" t="s">
         <v>44</v>
       </c>
@@ -9353,7 +9366,7 @@
         <v>37</v>
       </c>
       <c r="AD70" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AE70">
         <v>0</v>
@@ -9382,13 +9395,13 @@
         <v>32</v>
       </c>
       <c r="H71" t="s">
+        <v>706</v>
+      </c>
+      <c r="I71" t="s">
         <v>707</v>
       </c>
-      <c r="I71" t="s">
-        <v>708</v>
-      </c>
       <c r="J71" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K71" t="s">
         <v>380</v>
@@ -9400,22 +9413,22 @@
         <v>44</v>
       </c>
       <c r="N71" t="s">
+        <v>708</v>
+      </c>
+      <c r="O71" t="s">
         <v>709</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>710</v>
       </c>
-      <c r="P71" t="s">
-        <v>711</v>
-      </c>
       <c r="Q71" t="s">
         <v>37</v>
       </c>
       <c r="R71" t="s">
+        <v>687</v>
+      </c>
+      <c r="S71" t="s">
         <v>688</v>
-      </c>
-      <c r="S71" t="s">
-        <v>689</v>
       </c>
       <c r="T71" t="s">
         <v>380</v>
@@ -9433,11 +9446,11 @@
         <v>144</v>
       </c>
       <c r="Y71" t="s">
+        <v>711</v>
+      </c>
+      <c r="Z71" t="s">
         <v>712</v>
       </c>
-      <c r="Z71" t="s">
-        <v>713</v>
-      </c>
       <c r="AA71" t="s">
         <v>44</v>
       </c>
@@ -9448,7 +9461,7 @@
         <v>37</v>
       </c>
       <c r="AD71" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AE71">
         <v>0</v>
@@ -9477,13 +9490,13 @@
         <v>32</v>
       </c>
       <c r="H72" t="s">
+        <v>713</v>
+      </c>
+      <c r="I72" t="s">
         <v>714</v>
       </c>
-      <c r="I72" t="s">
-        <v>715</v>
-      </c>
       <c r="J72" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K72" t="s">
         <v>380</v>
@@ -9495,22 +9508,22 @@
         <v>44</v>
       </c>
       <c r="N72" t="s">
+        <v>715</v>
+      </c>
+      <c r="O72" t="s">
         <v>716</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>717</v>
       </c>
-      <c r="P72" t="s">
-        <v>718</v>
-      </c>
       <c r="Q72" t="s">
         <v>37</v>
       </c>
       <c r="R72" t="s">
+        <v>687</v>
+      </c>
+      <c r="S72" t="s">
         <v>688</v>
-      </c>
-      <c r="S72" t="s">
-        <v>689</v>
       </c>
       <c r="T72" t="s">
         <v>380</v>
@@ -9528,10 +9541,10 @@
         <v>144</v>
       </c>
       <c r="Y72" t="s">
+        <v>718</v>
+      </c>
+      <c r="Z72" t="s">
         <v>719</v>
-      </c>
-      <c r="Z72" t="s">
-        <v>720</v>
       </c>
       <c r="AA72" t="s">
         <v>44</v>
@@ -9569,16 +9582,16 @@
         <v>32</v>
       </c>
       <c r="H73" t="s">
+        <v>720</v>
+      </c>
+      <c r="I73" t="s">
         <v>721</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
+        <v>720</v>
+      </c>
+      <c r="K73" t="s">
         <v>722</v>
-      </c>
-      <c r="J73" t="s">
-        <v>721</v>
-      </c>
-      <c r="K73" t="s">
-        <v>723</v>
       </c>
       <c r="L73" t="s">
         <v>408</v>
@@ -9587,22 +9600,22 @@
         <v>44</v>
       </c>
       <c r="N73" t="s">
+        <v>723</v>
+      </c>
+      <c r="P73" t="s">
         <v>724</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
+        <v>37</v>
+      </c>
+      <c r="R73" t="s">
+        <v>687</v>
+      </c>
+      <c r="S73" t="s">
+        <v>688</v>
+      </c>
+      <c r="T73" t="s">
         <v>725</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>37</v>
-      </c>
-      <c r="R73" t="s">
-        <v>688</v>
-      </c>
-      <c r="S73" t="s">
-        <v>689</v>
-      </c>
-      <c r="T73" t="s">
-        <v>726</v>
       </c>
       <c r="U73" t="s">
         <v>37</v>
@@ -9617,10 +9630,10 @@
         <v>144</v>
       </c>
       <c r="Y73" t="s">
+        <v>726</v>
+      </c>
+      <c r="Z73" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="Z73" s="2" t="s">
-        <v>728</v>
       </c>
       <c r="AA73" t="s">
         <v>44</v>
@@ -9646,28 +9659,28 @@
         <v>45123</v>
       </c>
       <c r="D74" s="3">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="E74" s="4">
         <v>45123</v>
       </c>
       <c r="F74" s="3">
-        <v>0.51041666666666663</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="G74" t="s">
         <v>32</v>
       </c>
       <c r="H74" t="s">
+        <v>728</v>
+      </c>
+      <c r="I74" t="s">
+        <v>530</v>
+      </c>
+      <c r="J74" t="s">
+        <v>728</v>
+      </c>
+      <c r="K74" t="s">
         <v>729</v>
-      </c>
-      <c r="I74" t="s">
-        <v>531</v>
-      </c>
-      <c r="J74" t="s">
-        <v>729</v>
-      </c>
-      <c r="K74" t="s">
-        <v>730</v>
       </c>
       <c r="L74" t="s">
         <v>408</v>
@@ -9676,13 +9689,13 @@
         <v>44</v>
       </c>
       <c r="N74" t="s">
+        <v>730</v>
+      </c>
+      <c r="O74" t="s">
         <v>731</v>
       </c>
-      <c r="O74" t="s">
+      <c r="P74" t="s">
         <v>732</v>
-      </c>
-      <c r="P74" t="s">
-        <v>733</v>
       </c>
       <c r="Q74" t="s">
         <v>44</v>
@@ -9697,11 +9710,11 @@
         <v>144</v>
       </c>
       <c r="Y74" t="s">
+        <v>733</v>
+      </c>
+      <c r="Z74" t="s">
         <v>734</v>
       </c>
-      <c r="Z74" t="s">
-        <v>735</v>
-      </c>
       <c r="AA74" t="s">
         <v>44</v>
       </c>
@@ -9712,7 +9725,7 @@
         <v>37</v>
       </c>
       <c r="AD74" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE74">
         <v>0</v>
@@ -9741,16 +9754,16 @@
         <v>32</v>
       </c>
       <c r="H75" t="s">
+        <v>740</v>
+      </c>
+      <c r="I75" t="s">
         <v>741</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
+        <v>740</v>
+      </c>
+      <c r="K75" t="s">
         <v>742</v>
-      </c>
-      <c r="J75" t="s">
-        <v>741</v>
-      </c>
-      <c r="K75" t="s">
-        <v>743</v>
       </c>
       <c r="L75" t="s">
         <v>408</v>
@@ -9759,25 +9772,25 @@
         <v>37</v>
       </c>
       <c r="N75" t="s">
+        <v>743</v>
+      </c>
+      <c r="O75" t="s">
         <v>744</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>745</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
+        <v>37</v>
+      </c>
+      <c r="R75" t="s">
         <v>746</v>
       </c>
-      <c r="Q75" t="s">
-        <v>37</v>
-      </c>
-      <c r="R75" t="s">
+      <c r="S75" t="s">
         <v>747</v>
       </c>
-      <c r="S75" t="s">
+      <c r="T75" t="s">
         <v>748</v>
-      </c>
-      <c r="T75" t="s">
-        <v>749</v>
       </c>
       <c r="U75" t="s">
         <v>37</v>
@@ -9792,10 +9805,10 @@
         <v>144</v>
       </c>
       <c r="Y75" t="s">
+        <v>749</v>
+      </c>
+      <c r="Z75" t="s">
         <v>750</v>
-      </c>
-      <c r="Z75" t="s">
-        <v>751</v>
       </c>
       <c r="AA75" t="s">
         <v>37</v>
@@ -10115,7 +10128,7 @@
         <v>490</v>
       </c>
       <c r="Z79" t="s">
-        <v>491</v>
+        <v>773</v>
       </c>
       <c r="AA79" t="s">
         <v>44</v>
@@ -10153,16 +10166,16 @@
         <v>30</v>
       </c>
       <c r="H80" t="s">
+        <v>751</v>
+      </c>
+      <c r="I80" t="s">
         <v>752</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
+        <v>751</v>
+      </c>
+      <c r="K80" t="s">
         <v>753</v>
-      </c>
-      <c r="J80" t="s">
-        <v>752</v>
-      </c>
-      <c r="K80" t="s">
-        <v>754</v>
       </c>
       <c r="L80" t="s">
         <v>408</v>
@@ -10183,10 +10196,10 @@
         <v>363</v>
       </c>
       <c r="Y80" t="s">
+        <v>754</v>
+      </c>
+      <c r="Z80" s="2" t="s">
         <v>755</v>
-      </c>
-      <c r="Z80" s="2" t="s">
-        <v>756</v>
       </c>
       <c r="AA80" t="s">
         <v>44</v>
@@ -10224,16 +10237,16 @@
         <v>32</v>
       </c>
       <c r="H81" t="s">
+        <v>756</v>
+      </c>
+      <c r="I81" t="s">
         <v>757</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
+        <v>756</v>
+      </c>
+      <c r="K81" t="s">
         <v>758</v>
-      </c>
-      <c r="J81" t="s">
-        <v>757</v>
-      </c>
-      <c r="K81" t="s">
-        <v>759</v>
       </c>
       <c r="L81" t="s">
         <v>408</v>
@@ -10242,25 +10255,25 @@
         <v>44</v>
       </c>
       <c r="N81" t="s">
+        <v>759</v>
+      </c>
+      <c r="O81" t="s">
         <v>760</v>
       </c>
-      <c r="O81" t="s">
+      <c r="P81" t="s">
         <v>761</v>
       </c>
-      <c r="P81" t="s">
+      <c r="Q81" t="s">
+        <v>37</v>
+      </c>
+      <c r="R81" t="s">
         <v>762</v>
       </c>
-      <c r="Q81" t="s">
-        <v>37</v>
-      </c>
-      <c r="R81" t="s">
+      <c r="S81" t="s">
         <v>763</v>
       </c>
-      <c r="S81" t="s">
-        <v>764</v>
-      </c>
       <c r="T81" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="U81" t="s">
         <v>37</v>
@@ -10275,11 +10288,11 @@
         <v>363</v>
       </c>
       <c r="Y81" t="s">
+        <v>764</v>
+      </c>
+      <c r="Z81" t="s">
         <v>765</v>
       </c>
-      <c r="Z81" t="s">
-        <v>766</v>
-      </c>
       <c r="AA81" t="s">
         <v>44</v>
       </c>
@@ -10290,7 +10303,7 @@
         <v>37</v>
       </c>
       <c r="AD81" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AE81">
         <v>0</v>
@@ -10660,16 +10673,16 @@
         <v>30</v>
       </c>
       <c r="H86" t="s">
+        <v>612</v>
+      </c>
+      <c r="I86" t="s">
         <v>613</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
+        <v>612</v>
+      </c>
+      <c r="K86" s="2" t="s">
         <v>614</v>
-      </c>
-      <c r="J86" t="s">
-        <v>613</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>615</v>
       </c>
       <c r="L86" t="s">
         <v>408</v>
@@ -10678,10 +10691,10 @@
         <v>31</v>
       </c>
       <c r="Y86" t="s">
+        <v>615</v>
+      </c>
+      <c r="Z86" t="s">
         <v>616</v>
-      </c>
-      <c r="Z86" t="s">
-        <v>617</v>
       </c>
       <c r="AE86">
         <v>1</v>
@@ -10710,16 +10723,16 @@
         <v>32</v>
       </c>
       <c r="H87" t="s">
+        <v>617</v>
+      </c>
+      <c r="I87" t="s">
         <v>618</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
+        <v>617</v>
+      </c>
+      <c r="K87" t="s">
         <v>619</v>
-      </c>
-      <c r="J87" t="s">
-        <v>618</v>
-      </c>
-      <c r="K87" t="s">
-        <v>620</v>
       </c>
       <c r="L87" t="s">
         <v>408</v>
@@ -10728,13 +10741,13 @@
         <v>37</v>
       </c>
       <c r="N87" t="s">
+        <v>620</v>
+      </c>
+      <c r="O87" t="s">
         <v>621</v>
       </c>
-      <c r="O87" t="s">
+      <c r="P87" t="s">
         <v>622</v>
-      </c>
-      <c r="P87" t="s">
-        <v>623</v>
       </c>
       <c r="Q87" t="s">
         <v>44</v>
@@ -10749,10 +10762,10 @@
         <v>31</v>
       </c>
       <c r="Y87" t="s">
+        <v>623</v>
+      </c>
+      <c r="Z87" t="s">
         <v>624</v>
-      </c>
-      <c r="Z87" t="s">
-        <v>625</v>
       </c>
       <c r="AA87" t="s">
         <v>37</v>
@@ -10811,239 +10824,239 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+    <row r="89" spans="1:31" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C89" s="4">
-        <v>45123</v>
-      </c>
-      <c r="D89" s="3">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E89" s="4">
-        <v>45123</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="C89" s="6">
+        <v>45121</v>
+      </c>
+      <c r="D89" s="7">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E89" s="6">
+        <v>45121</v>
+      </c>
+      <c r="F89" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G89" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="J89" t="s">
+      <c r="J89" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="K89" t="s">
+      <c r="K89" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="L89" t="s">
+      <c r="L89" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="X89" t="s">
+      <c r="X89" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Y89" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Z89" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="AE89">
+      <c r="AE89" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+    <row r="90" spans="1:31" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
         <v>45020.453634259262</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C90" s="4">
-        <v>45123</v>
-      </c>
-      <c r="D90" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="E90" s="4">
-        <v>45123</v>
-      </c>
-      <c r="F90" s="3">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="C90" s="6">
+        <v>45121</v>
+      </c>
+      <c r="D90" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E90" s="6">
+        <v>45121</v>
+      </c>
+      <c r="F90" s="7">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="G90" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="I90" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="K90" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="J90" t="s">
-        <v>537</v>
-      </c>
-      <c r="K90" t="s">
+      <c r="L90" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="M90" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q90" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V90" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="W90" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X90" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y90" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="L90" t="s">
+      <c r="Z90" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="AA90" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB90" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC90" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE90" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
+        <v>45066.394479166665</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C91" s="6">
+        <v>45121</v>
+      </c>
+      <c r="D91" s="7">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E91" s="6">
+        <v>45121</v>
+      </c>
+      <c r="F91" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="L91" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="M90" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>44</v>
-      </c>
-      <c r="V90" t="s">
-        <v>37</v>
-      </c>
-      <c r="W90" t="s">
-        <v>37</v>
-      </c>
-      <c r="X90" t="s">
+      <c r="M91" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q91" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V91" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="W91" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X91" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="Y90" t="s">
-        <v>540</v>
-      </c>
-      <c r="Z90" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="AA90" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB90" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC90" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE90">
+      <c r="Y91" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="Z91" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="AA91" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB91" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC91" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE91" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>45066.394479166665</v>
-      </c>
-      <c r="B91" t="s">
+    <row r="92" spans="1:31" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C91" s="4">
-        <v>45123</v>
-      </c>
-      <c r="D91" s="3">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E91" s="4">
-        <v>45123</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="G91" t="s">
-        <v>32</v>
-      </c>
-      <c r="H91" t="s">
-        <v>564</v>
-      </c>
-      <c r="I91" t="s">
-        <v>565</v>
-      </c>
-      <c r="J91" t="s">
-        <v>564</v>
-      </c>
-      <c r="K91" t="s">
-        <v>566</v>
-      </c>
-      <c r="L91" t="s">
+      <c r="C92" s="6">
+        <v>45121</v>
+      </c>
+      <c r="D92" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="E92" s="6">
+        <v>45121</v>
+      </c>
+      <c r="F92" s="7">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="L92" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="M91" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>44</v>
-      </c>
-      <c r="V91" t="s">
-        <v>37</v>
-      </c>
-      <c r="W91" t="s">
-        <v>37</v>
-      </c>
-      <c r="X91" t="s">
+      <c r="X92" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="Y91" t="s">
-        <v>567</v>
-      </c>
-      <c r="Z91" t="s">
-        <v>568</v>
-      </c>
-      <c r="AA91" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB91" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC91" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>458</v>
-      </c>
-      <c r="C92" s="4">
-        <v>45123</v>
-      </c>
-      <c r="D92" s="3">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E92" s="4">
-        <v>45123</v>
-      </c>
-      <c r="F92" s="3">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="G92" t="s">
-        <v>30</v>
-      </c>
-      <c r="H92" t="s">
-        <v>736</v>
-      </c>
-      <c r="I92" t="s">
-        <v>737</v>
-      </c>
-      <c r="J92" t="s">
-        <v>736</v>
-      </c>
-      <c r="K92" t="s">
+      <c r="Y92" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="L92" t="s">
-        <v>408</v>
-      </c>
-      <c r="X92" t="s">
-        <v>458</v>
-      </c>
-      <c r="Y92" t="s">
+      <c r="Z92" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="Z92" t="s">
-        <v>740</v>
-      </c>
-      <c r="AE92">
+      <c r="AE92" s="5">
         <v>1</v>
       </c>
     </row>
@@ -11102,13 +11115,13 @@
         <v>45123</v>
       </c>
       <c r="D94" s="3">
-        <v>0.41666666666666669</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="E94" s="4">
         <v>45123</v>
       </c>
       <c r="F94" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="G94" t="s">
         <v>269</v>
@@ -11208,16 +11221,16 @@
         <v>139</v>
       </c>
       <c r="H96" t="s">
+        <v>553</v>
+      </c>
+      <c r="I96" t="s">
         <v>554</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
+        <v>553</v>
+      </c>
+      <c r="K96" t="s">
         <v>555</v>
-      </c>
-      <c r="J96" t="s">
-        <v>554</v>
-      </c>
-      <c r="K96" t="s">
-        <v>556</v>
       </c>
       <c r="L96" t="s">
         <v>408</v>
@@ -11226,21 +11239,16 @@
         <v>139</v>
       </c>
       <c r="Y96" t="s">
+        <v>556</v>
+      </c>
+      <c r="Z96" t="s">
         <v>557</v>
-      </c>
-      <c r="Z96" t="s">
-        <v>558</v>
       </c>
       <c r="AE96">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE96" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE96">
-      <sortCondition ref="X1:X96"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
